--- a/src/source/other/arbeitsrapport.xlsx
+++ b/src/source/other/arbeitsrapport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Anorderungskatalog erarbeiten</t>
+  </si>
+  <si>
+    <t>1.5h</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -445,6 +448,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
